--- a/Document/시스템 기획서/신규프로젝트_전투스텟_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_전투스텟_강일구.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t xml:space="preserve">신규 프로젝트_전투 문서 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,18 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격 입력 작동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지 계산  - &gt; 기본 데미지 + 추가 보상 피해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방어력 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 0~100까지 수 중 크리티컬 수치보다 큰 수치가 나올 경우 크리티컬이 작동 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -265,6 +253,38 @@
   </si>
   <si>
     <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 목적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 크리티컬 구현에 대한 서술 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 전투 시 필요한 스탯과 발생하는 계산에 대한 계산 식 서술 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 크리티컬이 발생할 확률을 조절하는 값 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 판정 시 크리티컬 공격과 일반 공격을 구분 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 공격 시 크리티컬 데미지 계산을 하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최종 피해 계산 일반 버전 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최종 피해 계산 크리티컬 버전 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,6 +471,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,9 +484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,25 +509,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>316255</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76489</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>354938</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -520,8 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="628650"/>
-          <a:ext cx="1002055" cy="5524789"/>
+          <a:off x="962025" y="733425"/>
+          <a:ext cx="4193513" cy="6008863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -851,34 +871,49 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -893,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G7"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -910,14 +945,14 @@
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
@@ -926,60 +961,60 @@
       <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1025,7 +1060,7 @@
     </row>
     <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1064,14 +1099,19 @@
         <v>28</v>
       </c>
     </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="s">
-        <v>22</v>
+      <c r="B37" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
@@ -1091,7 +1131,7 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
@@ -1104,17 +1144,17 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
@@ -1124,12 +1164,12 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1179,7 @@
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1189,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1168,32 +1208,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>43</v>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
